--- a/sample/output.xlsx
+++ b/sample/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30480" windowHeight="24220"/>
+    <workbookView windowWidth="30480" windowHeight="24220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="4">
   <si>
     <t>联系方式</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>年龄</t>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字</t>
+    </r>
   </si>
   <si>
     <t>求和</t>
@@ -138,7 +159,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="100">
+  <fonts count="102">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,14 +371,14 @@
     <font>
       <name val="宋体"/>
       <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
       <u val="single"/>
-      <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
       <color indexed="0"/>
       <charset val="0"/>
     </font>
@@ -379,13 +400,7 @@
     <font>
       <name val="宋体"/>
       <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
+      <i val="true"/>
       <u val="none"/>
       <color indexed="0"/>
       <charset val="0"/>
@@ -401,6 +416,7 @@
     <font>
       <name val="宋体"/>
       <sz val="11.0"/>
+      <b val="true"/>
       <u val="none"/>
       <color indexed="0"/>
       <charset val="0"/>
@@ -408,7 +424,73 @@
     <font>
       <name val="宋体"/>
       <sz val="11.0"/>
-      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
       <u val="none"/>
       <color indexed="0"/>
       <charset val="0"/>
@@ -423,64 +505,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
       <u val="none"/>
       <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <color indexed="0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
-      <charset val="0"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -746,6 +774,13 @@
       <main:color rgb="FF111111"/>
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -1299,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,19 +1350,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -1336,145 +1368,151 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2001,14 +2039,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="9.14453125" customWidth="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="5" max="5" width="8.0" customWidth="true"/>
+    <col min="6" max="6" width="8.0" customWidth="true"/>
+    <col min="7" max="7" width="15.625" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="17.6" customHeight="true">
+      <c r="A1" t="s" s="5">
         <v>34</v>
       </c>
       <c r="B1"/>
@@ -2017,187 +2064,190 @@
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="17.6" customHeight="true">
+      <c r="A2" t="s" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" t="s" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12" t="n">
+    <row r="3" ht="17.6" customHeight="true">
+      <c r="A3" t="n" s="12">
         <v>1.0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" t="n" s="14">
         <v>32.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="15" t="n">
+    <row r="4" ht="17.6" customHeight="true">
+      <c r="A4" t="n" s="15">
         <v>2.0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" t="n" s="17">
         <v>25.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="18" t="n">
+    <row r="5" ht="17.6" customHeight="true">
+      <c r="A5" t="n" s="18">
         <v>3.0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" t="s" s="19">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" t="n" s="20">
         <v>27.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="21" t="n">
+    <row r="6" ht="17.6" customHeight="true">
+      <c r="A6" t="n" s="21">
         <v>4.0</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" t="n" s="23">
         <v>31.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="24" t="n">
+    <row r="7" ht="17.6" customHeight="true">
+      <c r="A7" t="n" s="24">
         <v>5.0</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" t="s" s="25">
         <v>12</v>
       </c>
-      <c r="C7" s="26" t="n">
+      <c r="C7" t="n" s="26">
         <v>27.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="27" t="n">
+    <row r="8" ht="17.6" customHeight="true">
+      <c r="A8" t="n" s="27">
         <v>6.0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" t="s" s="28">
         <v>14</v>
       </c>
-      <c r="C8" s="29" t="n">
+      <c r="C8" t="n" s="29">
         <v>24.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="30" t="n">
+    <row r="9" ht="17.6" customHeight="true">
+      <c r="A9" t="n" s="30">
         <v>7.0</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" t="n" s="32">
         <v>20.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="33" t="n">
+    <row r="10" ht="17.6" customHeight="true">
+      <c r="A10" t="n" s="33">
         <v>8.0</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" t="s" s="34">
         <v>18</v>
       </c>
-      <c r="C10" s="35" t="n">
+      <c r="C10" t="n" s="35">
         <v>26.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="36" t="n">
+    <row r="11" ht="17.6" customHeight="true">
+      <c r="A11" t="n" s="36">
         <v>9.0</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" t="s" s="37">
         <v>20</v>
       </c>
-      <c r="C11" s="38" t="n">
+      <c r="C11" t="n" s="38">
         <v>31.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="39" t="n">
+    <row r="12" ht="17.6" customHeight="true">
+      <c r="A12" t="n" s="39">
         <v>10.0</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" t="s" s="40">
         <v>22</v>
       </c>
-      <c r="C12" s="41" t="n">
+      <c r="C12" t="n" s="41">
         <v>30.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="42" t="n">
+    <row r="13" ht="18.0" customHeight="true">
+      <c r="A13" t="n" s="42">
         <v>11.0</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" t="s" s="43">
         <v>24</v>
       </c>
-      <c r="C13" s="44" t="n">
+      <c r="C13" t="n" s="44">
         <v>33.0</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="45" t="n">
+      <c r="G13" t="s" s="45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" customHeight="true">
+      <c r="A14" t="n" s="46">
         <v>12.0</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" t="s" s="47">
         <v>26</v>
       </c>
-      <c r="C14" s="47" t="n">
+      <c r="C14" t="n" s="48">
         <v>33.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="48" t="n">
+    <row r="15" ht="17.6" customHeight="true">
+      <c r="A15" t="n" s="49">
         <v>13.0</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" t="s" s="50">
         <v>28</v>
       </c>
-      <c r="C15" s="50" t="n">
+      <c r="C15" t="n" s="51">
         <v>27.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="51" t="n">
+    <row r="16" ht="17.6" customHeight="true">
+      <c r="A16" t="n" s="52">
         <v>14.0</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" t="s" s="53">
         <v>30</v>
       </c>
-      <c r="C16" s="53" t="n">
+      <c r="C16" t="n" s="54">
         <v>20.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="54" t="n">
+    <row r="17" ht="17.6" customHeight="true">
+      <c r="A17" t="n" s="55">
         <v>15.0</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" t="s" s="56">
         <v>32</v>
       </c>
-      <c r="C17" s="56" t="n">
+      <c r="C17" t="n" s="57">
         <v>28.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="58" t="n">
+    <row r="18" ht="17.6" customHeight="true">
+      <c r="B18" t="s" s="58">
+        <v>37</v>
+      </c>
+      <c r="C18" s="59" t="n">
         <f>SUM(C3:C17)</f>
         <v>414.0</v>
       </c>

--- a/sample/output.xlsx
+++ b/sample/output.xlsx
@@ -159,7 +159,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="102">
+  <fonts count="157">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,6 +517,13 @@
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="FF0000"/>
+    </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
       <main:color theme="1"/>
@@ -524,50 +531,101 @@
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:i/>
       <main:sz val="12"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
       <main:sz val="12"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:i/>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:u/>
       <main:sz val="12"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:u/>
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="single"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -575,19 +633,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -595,19 +674,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -615,19 +715,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -635,19 +756,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -655,19 +797,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -675,19 +838,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -695,19 +879,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -715,19 +920,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -735,19 +961,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -755,19 +1002,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -775,26 +1043,54 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -802,19 +1098,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -822,19 +1139,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -842,19 +1180,40 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="12"/>
@@ -862,26 +1221,54 @@
       <main:name val="微软雅黑"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="12"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="111111"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1" rgb="000000"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1350,169 +1737,169 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center" wrapText="1"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
